--- a/TNR/TCGenerator/TCGenerator._Compteur.xlsx
+++ b/TNR/TCGenerator/TCGenerator._Compteur.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
     <sheet name="Generator" sheetId="1" r:id="rId2"/>
     <sheet name="TAG" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Step">Generator!$A:$J</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>ID_CODGES</t>
   </si>
@@ -276,6 +277,72 @@
   </si>
   <si>
     <t>MAT</t>
+  </si>
+  <si>
+    <t>HISTORIQUE</t>
+  </si>
+  <si>
+    <t>COMPTEUR AUXILIAIRE</t>
+  </si>
+  <si>
+    <t>tab_Historique</t>
+  </si>
+  <si>
+    <t>tab_CompteurAux</t>
+  </si>
+  <si>
+    <t>HISTO</t>
+  </si>
+  <si>
+    <t>comaux</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>$TAB$CPT</t>
+  </si>
+  <si>
+    <t>tab_CompteurSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$CPT</t>
+  </si>
+  <si>
+    <t>$TAB$EQU</t>
+  </si>
+  <si>
+    <t>tab_EquipementSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$EQU</t>
+  </si>
+  <si>
+    <t>$TAB$MAT</t>
+  </si>
+  <si>
+    <t>tab_MatriculeSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$MAT</t>
+  </si>
+  <si>
+    <t>$TAB$HISTO</t>
+  </si>
+  <si>
+    <t>tab_HistoriqueSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$HISTO</t>
+  </si>
+  <si>
+    <t>$TAB$comaux</t>
+  </si>
+  <si>
+    <t>tab_CompteurAuxSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$comaux</t>
   </si>
 </sst>
 </file>
@@ -426,177 +493,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1020,11 +917,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2205,12 +2102,238 @@
         <v>$TABSELECTED$MAT</v>
       </c>
     </row>
+    <row r="46" spans="2:10" s="19" customFormat="1">
+      <c r="B46" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="19" t="str">
+        <f t="shared" ref="F46:F50" si="15">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,2,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,3,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+      </c>
+      <c r="G46" s="19" t="str">
+        <f t="shared" ref="G46:G50" si="16">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,4,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,5,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+      </c>
+      <c r="H46" s="19" t="str">
+        <f t="shared" ref="H46:H50" si="17">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,6,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,7,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+      </c>
+      <c r="I46" s="20" t="str">
+        <f t="shared" ref="I46:I50" si="18">IF(OR(D46="tab",D46="tabselected"),B46&amp;VLOOKUP(D46,TAG_List,8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="20" t="str">
+        <f t="shared" ref="J46:J50" si="19">IF(OR(D46="tab",D46="tabselected"),VLOOKUP(D46,TAG_List,9,FALSE)&amp;C46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="19" customFormat="1">
+      <c r="F47" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G47" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H47" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I47" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J47" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="19" customFormat="1">
+      <c r="B48" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="G48" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="I48" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v>tab_Historique</v>
+      </c>
+      <c r="J48" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>$TAB$HISTO</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="19" customFormat="1">
+      <c r="B49" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
+      </c>
+      <c r="G49" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
+      </c>
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
+      </c>
+      <c r="I49" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v>tab_HistoriqueSelected</v>
+      </c>
+      <c r="J49" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>$TABSELECTED$HISTO</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="19" customFormat="1"/>
+    <row r="52" spans="2:10" s="19" customFormat="1">
+      <c r="B52" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" ref="F52:F56" si="20">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,2,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,3,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+      </c>
+      <c r="G52" s="19" t="str">
+        <f t="shared" ref="G52:G56" si="21">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,4,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,5,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+      </c>
+      <c r="H52" s="19" t="str">
+        <f t="shared" ref="H52:H56" si="22">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,6,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,7,FALSE))</f>
+        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+      </c>
+      <c r="I52" s="20" t="str">
+        <f t="shared" ref="I52:I56" si="23">IF(OR(D52="tab",D52="tabselected"),B52&amp;VLOOKUP(D52,TAG_List,8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="20" t="str">
+        <f t="shared" ref="J52:J56" si="24">IF(OR(D52="tab",D52="tabselected"),VLOOKUP(D52,TAG_List,9,FALSE)&amp;C52,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="19" customFormat="1">
+      <c r="F53" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G53" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H53" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I53" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J53" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:10" s="19" customFormat="1">
+      <c r="B54" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="G54" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="I54" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v>tab_CompteurAux</v>
+      </c>
+      <c r="J54" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v>$TAB$comaux</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" s="19" customFormat="1">
+      <c r="B55" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
+      </c>
+      <c r="G55" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
+      </c>
+      <c r="I55" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v>tab_CompteurAuxSelected</v>
+      </c>
+      <c r="J55" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v>$TABSELECTED$comaux</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="19" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2518,4 +2641,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TNR/TCGenerator/TCGenerator._Compteur.xlsx
+++ b/TNR/TCGenerator/TCGenerator._Compteur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>ID_CODGES</t>
   </si>
@@ -493,75 +493,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <strike val="0"/>
@@ -917,11 +849,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1024,23 +956,23 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14" t="str">
-        <f t="shared" ref="F4:F19" si="5">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,2,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,3,FALSE))</f>
+        <f t="shared" ref="F4:F20" si="5">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,2,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,3,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Compteur")</v>
       </c>
       <c r="G4" s="14" t="str">
-        <f t="shared" ref="G4:G19" si="6">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,4,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,5,FALSE))</f>
+        <f t="shared" ref="G4:G20" si="6">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,4,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,5,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Compteur")</v>
       </c>
       <c r="H4" s="14" t="str">
-        <f t="shared" ref="H4:H19" si="7">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,6,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,7,FALSE))</f>
+        <f t="shared" ref="H4:H20" si="7">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,6,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,7,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Compteur")</v>
       </c>
       <c r="I4" s="17" t="str">
-        <f t="shared" ref="I4:I19" si="8">IF(OR(D4="tab",D4="tabselected"),B4&amp;VLOOKUP(D4,TAG_List,8,FALSE),"")</f>
+        <f t="shared" ref="I4:I20" si="8">IF(OR(D4="tab",D4="tabselected"),B4&amp;VLOOKUP(D4,TAG_List,8,FALSE),"")</f>
         <v>tab_Compteur</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f t="shared" ref="J4:J19" si="9">IF(OR(D4="tab",D4="tabselected"),VLOOKUP(D4,TAG_List,9,FALSE)&amp;C4,"")</f>
+        <f t="shared" ref="J4:J20" si="9">IF(OR(D4="tab",D4="tabselected"),VLOOKUP(D4,TAG_List,9,FALSE)&amp;C4,"")</f>
         <v>$TAB$CPT</v>
       </c>
     </row>
@@ -1343,594 +1275,589 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:10" s="19" customFormat="1">
+      <c r="B16" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="18" t="s">
+      <c r="F16" s="19" t="str">
+        <f t="shared" ref="F16" si="10">IF(ISBLANK(D16),"",VLOOKUP(D16,TAG_List,2,FALSE)&amp;B16&amp;VLOOKUP(D16,TAG_List,3,FALSE))</f>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_TELE","O")</v>
+      </c>
+      <c r="G16" s="19" t="str">
+        <f t="shared" ref="G16" si="11">IF(ISBLANK(D16),"",VLOOKUP(D16,TAG_List,4,FALSE)&amp;B16&amp;VLOOKUP(D16,TAG_List,5,FALSE))</f>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_TELE","O")</v>
+      </c>
+      <c r="H16" s="19" t="str">
+        <f t="shared" ref="H16" si="12">IF(ISBLANK(D16),"",VLOOKUP(D16,TAG_List,6,FALSE)&amp;B16&amp;VLOOKUP(D16,TAG_List,7,FALSE))</f>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_TELE","O")</v>
+      </c>
+      <c r="I16" s="20" t="str">
+        <f t="shared" ref="I16" si="13">IF(OR(D16="tab",D16="tabselected"),B16&amp;VLOOKUP(D16,TAG_List,8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="20" t="str">
+        <f t="shared" ref="J16" si="14">IF(OR(D16="tab",D16="tabselected"),VLOOKUP(D16,TAG_List,9,FALSE)&amp;C16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="14" customFormat="1" ht="13.8" customHeight="1">
+      <c r="B17" s="18"/>
+      <c r="D17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F18" s="14" t="str">
         <f t="shared" si="5"/>
         <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="6"/>
         <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H18" s="14" t="str">
         <f t="shared" si="7"/>
         <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I18" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J18" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="19" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F19" s="14" t="str">
         <f t="shared" si="5"/>
         <v>KW.scrollAndSetText(myJDD,"DT_MAJN")</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="6"/>
         <v>KW.scrollAndSetText(myJDD, "DT_MAJN")</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H19" s="14" t="str">
         <f t="shared" si="7"/>
         <v>KW.verifyValue(myJDD,"DT_MAJN")</v>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I19" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J19" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="19" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F20" s="14" t="str">
         <f t="shared" si="5"/>
         <v>KW.scrollAndSetText(myJDD,"DT_DATREF")</v>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="6"/>
         <v>KW.scrollAndSetText(myJDD, "DT_DATREF")</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H20" s="14" t="str">
         <f t="shared" si="7"/>
         <v>KW.verifyValue(myJDD,"DT_DATREF")</v>
       </c>
-      <c r="I19" s="17" t="str">
+      <c r="I20" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J20" s="17" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19" t="str">
-        <f t="shared" ref="F20:F43" si="10">IF(ISBLANK(D20),"",VLOOKUP(D20,TAG_List,2,FALSE)&amp;B20&amp;VLOOKUP(D20,TAG_List,3,FALSE))</f>
-        <v>KW.scrollAndSetText(myJDD,"NU_VALN")</v>
-      </c>
-      <c r="G20" s="19" t="str">
-        <f t="shared" ref="G20:G43" si="11">IF(ISBLANK(D20),"",VLOOKUP(D20,TAG_List,4,FALSE)&amp;B20&amp;VLOOKUP(D20,TAG_List,5,FALSE))</f>
-        <v>KW.scrollAndSetText(myJDD, "NU_VALN")</v>
-      </c>
-      <c r="H20" s="19" t="str">
-        <f t="shared" ref="H20:H43" si="12">IF(ISBLANK(D20),"",VLOOKUP(D20,TAG_List,6,FALSE)&amp;B20&amp;VLOOKUP(D20,TAG_List,7,FALSE))</f>
-        <v>KW.verifyValue(myJDD,"NU_VALN")</v>
-      </c>
-      <c r="I20" s="20" t="str">
-        <f t="shared" ref="I20:I43" si="13">IF(OR(D20="tab",D20="tabselected"),B20&amp;VLOOKUP(D20,TAG_List,8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="20" t="str">
-        <f t="shared" ref="J20:J43" si="14">IF(OR(D20="tab",D20="tabselected"),VLOOKUP(D20,TAG_List,9,FALSE)&amp;C20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
       </c>
       <c r="F21" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <f t="shared" ref="F21:F44" si="15">IF(ISBLANK(D21),"",VLOOKUP(D21,TAG_List,2,FALSE)&amp;B21&amp;VLOOKUP(D21,TAG_List,3,FALSE))</f>
+        <v>KW.scrollAndSetText(myJDD,"NU_VALN")</v>
       </c>
       <c r="G21" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <f t="shared" ref="G21:G44" si="16">IF(ISBLANK(D21),"",VLOOKUP(D21,TAG_List,4,FALSE)&amp;B21&amp;VLOOKUP(D21,TAG_List,5,FALSE))</f>
+        <v>KW.scrollAndSetText(myJDD, "NU_VALN")</v>
       </c>
       <c r="H21" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <f t="shared" ref="H21:H44" si="17">IF(ISBLANK(D21),"",VLOOKUP(D21,TAG_List,6,FALSE)&amp;B21&amp;VLOOKUP(D21,TAG_List,7,FALSE))</f>
+        <v>KW.verifyValue(myJDD,"NU_VALN")</v>
       </c>
       <c r="I21" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I21:I44" si="18">IF(OR(D21="tab",D21="tabselected"),B21&amp;VLOOKUP(D21,TAG_List,8,FALSE),"")</f>
         <v/>
       </c>
       <c r="J21" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J21:J44" si="19">IF(OR(D21="tab",D21="tabselected"),VLOOKUP(D21,TAG_List,9,FALSE)&amp;C21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_MAJDEL","O")</v>
+        <f t="shared" si="15"/>
+        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="G22" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_MAJDEL","O")</v>
+        <f t="shared" si="16"/>
+        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="H22" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_MAJDEL","O")</v>
+        <f t="shared" si="17"/>
+        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="I22" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J22" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_DELTA","O")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_MAJDEL","O")</v>
       </c>
       <c r="G23" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_DELTA","O")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_MAJDEL","O")</v>
       </c>
       <c r="H23" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_DELTA","O")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_MAJDEL","O")</v>
       </c>
       <c r="I23" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J23" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndSetText(myJDD,"DATE")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_DELTA","O")</v>
       </c>
       <c r="G24" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndSetText(myJDD, "DATE")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_DELTA","O")</v>
       </c>
       <c r="H24" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyValue(myJDD,"DATE")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_DELTA","O")</v>
       </c>
       <c r="I24" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J24" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndSetText(myJDD,"HEURE")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndSetText(myJDD,"DATE")</v>
       </c>
       <c r="G25" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndSetText(myJDD, "HEURE")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndSetText(myJDD, "DATE")</v>
       </c>
       <c r="H25" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyValue(myJDD,"HEURE")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyValue(myJDD,"DATE")</v>
       </c>
       <c r="I25" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J25" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndSetText(myJDD,"INDICATION")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndSetText(myJDD,"HEURE")</v>
       </c>
       <c r="G26" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndSetText(myJDD, "INDICATION")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndSetText(myJDD, "HEURE")</v>
       </c>
       <c r="H26" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyValue(myJDD,"INDICATION")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyValue(myJDD,"HEURE")</v>
       </c>
       <c r="I26" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J26" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F27" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndSetText(myJDD,"INDICATION")</v>
       </c>
       <c r="G27" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndSetText(myJDD, "INDICATION")</v>
       </c>
       <c r="H27" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyValue(myJDD,"INDICATION")</v>
       </c>
       <c r="I27" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J27" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F28" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODCOMPRI")</v>
+        <f t="shared" si="15"/>
+        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="G28" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODCOMPRI","","")</v>
+        <f t="shared" si="16"/>
+        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="H28" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyValue(myJDD,"ID_CODCOMPRI")</v>
+        <f t="shared" si="17"/>
+        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="I28" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J28" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F29" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>//ST_DESID_CODCOMPRI --&gt; pas d'action en création</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODCOMPRI")</v>
       </c>
       <c r="G29" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>//ST_DESID_CODCOMPRI --&gt; pas d'action en modification</v>
+        <f t="shared" si="16"/>
+        <v>KW.searchWithHelper(myJDD, "ID_CODCOMPRI","","")</v>
       </c>
       <c r="H29" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODCOMPRI")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyValue(myJDD,"ID_CODCOMPRI")</v>
       </c>
       <c r="I29" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J29" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <f t="shared" si="15"/>
+        <v>//ST_DESID_CODCOMPRI --&gt; pas d'action en création</v>
       </c>
       <c r="G30" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <f t="shared" si="16"/>
+        <v>//ST_DESID_CODCOMPRI --&gt; pas d'action en modification</v>
       </c>
       <c r="H30" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODCOMPRI")</v>
       </c>
       <c r="I30" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J30" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F31" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJEQU","O")</v>
+        <f t="shared" si="15"/>
+        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="G31" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJEQU","O")</v>
+        <f t="shared" si="16"/>
+        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="H31" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_COMMAJEQU","O")</v>
+        <f t="shared" si="17"/>
+        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="I31" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J31" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJMAT","O")</v>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJEQU","O")</v>
       </c>
       <c r="G32" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJMAT","O")</v>
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJEQU","O")</v>
       </c>
       <c r="H32" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_COMMAJMAT","O")</v>
+        <f t="shared" si="17"/>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_COMMAJEQU","O")</v>
       </c>
       <c r="I32" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J32" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJMAT","O")</v>
+      </c>
+      <c r="G33" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMMAJMAT","O")</v>
+      </c>
+      <c r="H33" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_COMMAJMAT","O")</v>
+      </c>
+      <c r="I33" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J33" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f t="shared" si="15"/>
         <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMNOTMAJ","O")</v>
       </c>
-      <c r="G33" s="19" t="str">
-        <f t="shared" si="11"/>
+      <c r="G34" s="19" t="str">
+        <f t="shared" si="16"/>
         <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_COMNOTMAJ","O")</v>
       </c>
-      <c r="H33" s="19" t="str">
-        <f t="shared" si="12"/>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="17"/>
         <v>KW.verifyElementCheckedOrNot(myJDD,"ST_COMNOTMAJ","O")</v>
       </c>
-      <c r="I33" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J33" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="F34" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G34" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H34" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
       <c r="I34" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J34" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="19" customFormat="1">
-      <c r="B35" s="19" t="s">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="F35" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G35" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H35" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I35" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J35" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="19" customFormat="1">
+      <c r="B36" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="19" t="str">
-        <f t="shared" si="10"/>
+      <c r="F36" s="19" t="str">
+        <f t="shared" si="15"/>
         <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
-      <c r="G35" s="19" t="str">
-        <f t="shared" si="11"/>
+      <c r="G36" s="19" t="str">
+        <f t="shared" si="16"/>
         <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
-      <c r="H35" s="19" t="str">
-        <f t="shared" si="12"/>
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="17"/>
         <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
-      <c r="I35" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J35" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:10" s="19" customFormat="1">
-      <c r="F36" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G36" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H36" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
       <c r="I36" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J36" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>8</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="19" customFormat="1">
       <c r="F37" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+        <f t="shared" si="15"/>
+        <v/>
       </c>
       <c r="G37" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="H37" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="I37" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>tab_Equipement</v>
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="J37" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>$TAB$EQU</v>
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -1941,134 +1868,134 @@
         <v>78</v>
       </c>
       <c r="D38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Equipement")</v>
+      </c>
+      <c r="I38" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v>tab_Equipement</v>
+      </c>
+      <c r="J38" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>$TAB$EQU</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="19" t="str">
-        <f t="shared" si="10"/>
+      <c r="F39" s="19" t="str">
+        <f t="shared" si="15"/>
         <v>KW.waitForElementVisible(myJDD,"tab_EquipementSelected")</v>
       </c>
-      <c r="G38" s="19" t="str">
-        <f t="shared" si="11"/>
+      <c r="G39" s="19" t="str">
+        <f t="shared" si="16"/>
         <v>KW.waitForElementVisible(myJDD,"tab_EquipementSelected")</v>
       </c>
-      <c r="H38" s="19" t="str">
-        <f t="shared" si="12"/>
+      <c r="H39" s="19" t="str">
+        <f t="shared" si="17"/>
         <v>KW.waitForElementVisible(myJDD,"tab_EquipementSelected")</v>
       </c>
-      <c r="I38" s="20" t="str">
-        <f t="shared" si="13"/>
+      <c r="I39" s="20" t="str">
+        <f t="shared" si="18"/>
         <v>tab_EquipementSelected</v>
       </c>
-      <c r="J38" s="20" t="str">
-        <f t="shared" si="14"/>
+      <c r="J39" s="20" t="str">
+        <f t="shared" si="19"/>
         <v>$TABSELECTED$EQU</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="F39" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G39" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H39" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I39" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J39" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="19" t="s">
+      <c r="F40" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G40" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I40" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J40" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="19" t="str">
-        <f t="shared" si="10"/>
+      <c r="F41" s="19" t="str">
+        <f t="shared" si="15"/>
         <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
-      <c r="G40" s="19" t="str">
-        <f t="shared" si="11"/>
+      <c r="G41" s="19" t="str">
+        <f t="shared" si="16"/>
         <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
-      <c r="H40" s="19" t="str">
-        <f t="shared" si="12"/>
+      <c r="H41" s="19" t="str">
+        <f t="shared" si="17"/>
         <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
-      <c r="I40" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J40" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="F41" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G41" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H41" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
       <c r="I41" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J41" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="F42" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+        <f t="shared" si="15"/>
+        <v/>
       </c>
       <c r="G42" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="H42" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="I42" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>tab_Matricule</v>
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="J42" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>$TAB$MAT</v>
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -2079,108 +2006,108 @@
         <v>84</v>
       </c>
       <c r="D43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Matricule")</v>
+      </c>
+      <c r="I43" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v>tab_Matricule</v>
+      </c>
+      <c r="J43" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>$TAB$MAT</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="19" t="str">
-        <f t="shared" si="10"/>
+      <c r="F44" s="19" t="str">
+        <f t="shared" si="15"/>
         <v>KW.waitForElementVisible(myJDD,"tab_MatriculeSelected")</v>
       </c>
-      <c r="G43" s="19" t="str">
-        <f t="shared" si="11"/>
+      <c r="G44" s="19" t="str">
+        <f t="shared" si="16"/>
         <v>KW.waitForElementVisible(myJDD,"tab_MatriculeSelected")</v>
       </c>
-      <c r="H43" s="19" t="str">
-        <f t="shared" si="12"/>
+      <c r="H44" s="19" t="str">
+        <f t="shared" si="17"/>
         <v>KW.waitForElementVisible(myJDD,"tab_MatriculeSelected")</v>
       </c>
-      <c r="I43" s="20" t="str">
-        <f t="shared" si="13"/>
+      <c r="I44" s="20" t="str">
+        <f t="shared" si="18"/>
         <v>tab_MatriculeSelected</v>
       </c>
-      <c r="J43" s="20" t="str">
-        <f t="shared" si="14"/>
+      <c r="J44" s="20" t="str">
+        <f t="shared" si="19"/>
         <v>$TABSELECTED$MAT</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="19" customFormat="1">
-      <c r="B46" s="19" t="s">
+    <row r="47" spans="2:10" s="19" customFormat="1">
+      <c r="B47" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="19" t="str">
-        <f t="shared" ref="F46:F50" si="15">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,2,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,3,FALSE))</f>
+      <c r="F47" s="19" t="str">
+        <f t="shared" ref="F47:F50" si="20">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,2,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,3,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
-      <c r="G46" s="19" t="str">
-        <f t="shared" ref="G46:G50" si="16">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,4,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,5,FALSE))</f>
+      <c r="G47" s="19" t="str">
+        <f t="shared" ref="G47:G50" si="21">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,4,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,5,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
-      <c r="H46" s="19" t="str">
-        <f t="shared" ref="H46:H50" si="17">IF(ISBLANK(D46),"",VLOOKUP(D46,TAG_List,6,FALSE)&amp;B46&amp;VLOOKUP(D46,TAG_List,7,FALSE))</f>
+      <c r="H47" s="19" t="str">
+        <f t="shared" ref="H47:H50" si="22">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,6,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,7,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
-      <c r="I46" s="20" t="str">
-        <f t="shared" ref="I46:I50" si="18">IF(OR(D46="tab",D46="tabselected"),B46&amp;VLOOKUP(D46,TAG_List,8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="20" t="str">
-        <f t="shared" ref="J46:J50" si="19">IF(OR(D46="tab",D46="tabselected"),VLOOKUP(D46,TAG_List,9,FALSE)&amp;C46,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:10" s="19" customFormat="1">
-      <c r="F47" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G47" s="19" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H47" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I47" s="20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I47:I50" si="23">IF(OR(D47="tab",D47="tabselected"),B47&amp;VLOOKUP(D47,TAG_List,8,FALSE),"")</f>
         <v/>
       </c>
       <c r="J47" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="J47:J50" si="24">IF(OR(D47="tab",D47="tabselected"),VLOOKUP(D47,TAG_List,9,FALSE)&amp;C47,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:10" s="19" customFormat="1">
-      <c r="B48" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="G48" s="19" t="str">
-        <f t="shared" si="16"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+        <f t="shared" si="21"/>
+        <v/>
       </c>
       <c r="H48" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="I48" s="20" t="str">
-        <f t="shared" si="18"/>
-        <v>tab_Historique</v>
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="J48" s="20" t="str">
-        <f t="shared" si="19"/>
-        <v>$TAB$HISTO</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:10" s="19" customFormat="1">
@@ -2191,109 +2118,109 @@
         <v>89</v>
       </c>
       <c r="D49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="G49" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v>KW.scrollAndClick(myJDD,"tab_Historique")</v>
+      </c>
+      <c r="I49" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v>tab_Historique</v>
+      </c>
+      <c r="J49" s="20" t="str">
+        <f t="shared" si="24"/>
+        <v>$TAB$HISTO</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="19" customFormat="1">
+      <c r="B50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="19" t="str">
-        <f t="shared" si="15"/>
+      <c r="F50" s="19" t="str">
+        <f t="shared" si="20"/>
         <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
       </c>
-      <c r="G49" s="19" t="str">
-        <f t="shared" si="16"/>
+      <c r="G50" s="19" t="str">
+        <f t="shared" si="21"/>
         <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
       </c>
-      <c r="H49" s="19" t="str">
-        <f t="shared" si="17"/>
+      <c r="H50" s="19" t="str">
+        <f t="shared" si="22"/>
         <v>KW.waitForElementVisible(myJDD,"tab_HistoriqueSelected")</v>
       </c>
-      <c r="I49" s="20" t="str">
-        <f t="shared" si="18"/>
+      <c r="I50" s="20" t="str">
+        <f t="shared" si="23"/>
         <v>tab_HistoriqueSelected</v>
       </c>
-      <c r="J49" s="20" t="str">
-        <f t="shared" si="19"/>
+      <c r="J50" s="20" t="str">
+        <f t="shared" si="24"/>
         <v>$TABSELECTED$HISTO</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="19" customFormat="1"/>
-    <row r="52" spans="2:10" s="19" customFormat="1">
-      <c r="B52" s="19" t="s">
+    <row r="51" spans="2:10" s="19" customFormat="1"/>
+    <row r="53" spans="2:10" s="19" customFormat="1">
+      <c r="B53" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="19" t="str">
-        <f t="shared" ref="F52:F56" si="20">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,2,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,3,FALSE))</f>
+      <c r="F53" s="19" t="str">
+        <f t="shared" ref="F53:F56" si="25">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,2,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,3,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
-      <c r="G52" s="19" t="str">
-        <f t="shared" ref="G52:G56" si="21">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,4,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,5,FALSE))</f>
+      <c r="G53" s="19" t="str">
+        <f t="shared" ref="G53:G56" si="26">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,4,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,5,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
-      <c r="H52" s="19" t="str">
-        <f t="shared" ref="H52:H56" si="22">IF(ISBLANK(D52),"",VLOOKUP(D52,TAG_List,6,FALSE)&amp;B52&amp;VLOOKUP(D52,TAG_List,7,FALSE))</f>
+      <c r="H53" s="19" t="str">
+        <f t="shared" ref="H53:H56" si="27">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,6,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,7,FALSE))</f>
         <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
-      <c r="I52" s="20" t="str">
-        <f t="shared" ref="I52:I56" si="23">IF(OR(D52="tab",D52="tabselected"),B52&amp;VLOOKUP(D52,TAG_List,8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="20" t="str">
-        <f t="shared" ref="J52:J56" si="24">IF(OR(D52="tab",D52="tabselected"),VLOOKUP(D52,TAG_List,9,FALSE)&amp;C52,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:10" s="19" customFormat="1">
-      <c r="F53" s="19" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G53" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H53" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
       <c r="I53" s="20" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I53:I56" si="28">IF(OR(D53="tab",D53="tabselected"),B53&amp;VLOOKUP(D53,TAG_List,8,FALSE),"")</f>
         <v/>
       </c>
       <c r="J53" s="20" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J53:J56" si="29">IF(OR(D53="tab",D53="tabselected"),VLOOKUP(D53,TAG_List,9,FALSE)&amp;C53,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:10" s="19" customFormat="1">
-      <c r="B54" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="F54" s="19" t="str">
-        <f t="shared" si="20"/>
-        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+        <f t="shared" si="25"/>
+        <v/>
       </c>
       <c r="G54" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="H54" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="I54" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v>tab_CompteurAux</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="J54" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v>$TAB$comaux</v>
+        <f t="shared" si="29"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="2:10" s="19" customFormat="1">
@@ -2304,41 +2231,72 @@
         <v>90</v>
       </c>
       <c r="D55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="G55" s="19" t="str">
+        <f t="shared" si="26"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>KW.scrollAndClick(myJDD,"tab_CompteurAux")</v>
+      </c>
+      <c r="I55" s="20" t="str">
+        <f t="shared" si="28"/>
+        <v>tab_CompteurAux</v>
+      </c>
+      <c r="J55" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>$TAB$comaux</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="19" customFormat="1">
+      <c r="B56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="19" t="str">
-        <f t="shared" si="20"/>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="25"/>
         <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
       </c>
-      <c r="G55" s="19" t="str">
-        <f t="shared" si="21"/>
+      <c r="G56" s="19" t="str">
+        <f t="shared" si="26"/>
         <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
       </c>
-      <c r="H55" s="19" t="str">
-        <f t="shared" si="22"/>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="27"/>
         <v>KW.waitForElementVisible(myJDD,"tab_CompteurAuxSelected")</v>
       </c>
-      <c r="I55" s="20" t="str">
-        <f t="shared" si="23"/>
+      <c r="I56" s="20" t="str">
+        <f t="shared" si="28"/>
         <v>tab_CompteurAuxSelected</v>
       </c>
-      <c r="J55" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="J56" s="20" t="str">
+        <f t="shared" si="29"/>
         <v>$TABSELECTED$comaux</v>
       </c>
     </row>
-    <row r="56" spans="2:10" s="19" customFormat="1"/>
+    <row r="57" spans="2:10" s="19" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="inconnu" sqref="E9:E19">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="inconnu" sqref="E9:E20">
       <formula1>TAG_name</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
@@ -2647,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/TCGenerator/TCGenerator._Compteur.xlsx
+++ b/TNR/TCGenerator/TCGenerator._Compteur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -123,12 +123,6 @@
     <t xml:space="preserve"> --&gt; pas d'action en modification</t>
   </si>
   <si>
-    <t>MYLOG.addSTEPBLOCK("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLOG.addSTEPGRP("ONGLET </t>
-  </si>
-  <si>
     <t>")</t>
   </si>
   <si>
@@ -343,6 +337,12 @@
   </si>
   <si>
     <t>$TABSELECTED$comaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNRResult.addSTEPGRP("ONGLET </t>
+  </si>
+  <si>
+    <t>TNRResult.addSTEPBLOCK("</t>
   </si>
 </sst>
 </file>
@@ -493,41 +493,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -851,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
@@ -877,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -906,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="19" t="s">
@@ -915,15 +881,15 @@
       <c r="E2" s="4"/>
       <c r="F2" t="str">
         <f t="shared" ref="F2" si="0">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,2,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR")</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" ref="G2" si="1">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,4,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR")</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2" si="2">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,6,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR")</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2" si="3">IF(OR(D2="tab",D2="tabselected"),B2&amp;VLOOKUP(D2,TAG_List,8,FALSE),"")</f>
@@ -946,10 +912,10 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1">
       <c r="B4" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>8</v>
@@ -979,10 +945,10 @@
     <row r="5" spans="1:10" s="2" customFormat="1">
       <c r="A5" s="8"/>
       <c r="B5" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>9</v>
@@ -1051,7 +1017,7 @@
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1">
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="19" t="s">
@@ -1081,7 +1047,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>2</v>
@@ -1109,7 +1075,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>2</v>
@@ -1140,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" si="5"/>
@@ -1193,7 +1159,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>3</v>
@@ -1221,7 +1187,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>2</v>
@@ -1249,7 +1215,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>3</v>
@@ -1277,7 +1243,7 @@
     </row>
     <row r="16" spans="1:10" s="19" customFormat="1">
       <c r="B16" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>3</v>
@@ -1313,22 +1279,22 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
+        <v>TNRResult.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
       <c r="G18" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
+        <v>TNRResult.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPBLOCK("INDICATION ACTUELLE")</v>
+        <v>TNRResult.addSTEPBLOCK("INDICATION ACTUELLE")</v>
       </c>
       <c r="I18" s="17" t="str">
         <f t="shared" si="8"/>
@@ -1341,7 +1307,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
@@ -1370,7 +1336,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>2</v>
@@ -1398,7 +1364,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -1426,22 +1392,22 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="G22" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("SAISIR UNE NOUVELLE VALEUR")</v>
       </c>
       <c r="I22" s="20" t="str">
         <f t="shared" si="18"/>
@@ -1454,7 +1420,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -1482,7 +1448,7 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>3</v>
@@ -1510,7 +1476,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>2</v>
@@ -1538,7 +1504,7 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>2</v>
@@ -1566,7 +1532,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>2</v>
@@ -1594,22 +1560,22 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <v>TNRResult.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="G28" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <v>TNRResult.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="H28" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
+        <v>TNRResult.addSTEPBLOCK("COMPTEUR PRINCIPAL")</v>
       </c>
       <c r="I28" s="20" t="str">
         <f t="shared" si="18"/>
@@ -1622,10 +1588,10 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="19" t="str">
         <f t="shared" si="15"/>
@@ -1650,7 +1616,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>11</v>
@@ -1678,22 +1644,22 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="G31" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="H31" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
+        <v>TNRResult.addSTEPBLOCK("OPTION DE MISE A JOUR DES CODES COMPTEUR")</v>
       </c>
       <c r="I31" s="20" t="str">
         <f t="shared" si="18"/>
@@ -1706,7 +1672,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>3</v>
@@ -1734,7 +1700,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>3</v>
@@ -1762,7 +1728,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>3</v>
@@ -1812,22 +1778,22 @@
     </row>
     <row r="36" spans="2:10" s="19" customFormat="1">
       <c r="B36" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
       <c r="G36" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
       <c r="H36" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPGRP("ONGLET EQUIPEMENT")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET EQUIPEMENT")</v>
       </c>
       <c r="I36" s="20" t="str">
         <f t="shared" si="18"/>
@@ -1862,10 +1828,10 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>8</v>
@@ -1893,10 +1859,10 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>9</v>
@@ -1946,7 +1912,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
@@ -1954,15 +1920,15 @@
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
       <c r="G41" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
       <c r="H41" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPGRP("ONGLET MATRICULE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET MATRICULE")</v>
       </c>
       <c r="I41" s="20" t="str">
         <f t="shared" si="18"/>
@@ -2000,10 +1966,10 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>8</v>
@@ -2031,10 +1997,10 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>9</v>
@@ -2062,22 +2028,22 @@
     </row>
     <row r="47" spans="2:10" s="19" customFormat="1">
       <c r="B47" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="19" t="str">
         <f t="shared" ref="F47:F50" si="20">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,2,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
       <c r="G47" s="19" t="str">
         <f t="shared" ref="G47:G50" si="21">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,4,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
       <c r="H47" s="19" t="str">
         <f t="shared" ref="H47:H50" si="22">IF(ISBLANK(D47),"",VLOOKUP(D47,TAG_List,6,FALSE)&amp;B47&amp;VLOOKUP(D47,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET HISTORIQUE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HISTORIQUE")</v>
       </c>
       <c r="I47" s="20" t="str">
         <f t="shared" ref="I47:I50" si="23">IF(OR(D47="tab",D47="tabselected"),B47&amp;VLOOKUP(D47,TAG_List,8,FALSE),"")</f>
@@ -2112,10 +2078,10 @@
     </row>
     <row r="49" spans="2:10" s="19" customFormat="1">
       <c r="B49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>8</v>
@@ -2143,10 +2109,10 @@
     </row>
     <row r="50" spans="2:10" s="19" customFormat="1">
       <c r="B50" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>9</v>
@@ -2175,22 +2141,22 @@
     <row r="51" spans="2:10" s="19" customFormat="1"/>
     <row r="53" spans="2:10" s="19" customFormat="1">
       <c r="B53" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" ref="F53:F56" si="25">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,2,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
       <c r="G53" s="19" t="str">
         <f t="shared" ref="G53:G56" si="26">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,4,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
       <c r="H53" s="19" t="str">
         <f t="shared" ref="H53:H56" si="27">IF(ISBLANK(D53),"",VLOOKUP(D53,TAG_List,6,FALSE)&amp;B53&amp;VLOOKUP(D53,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMPTEUR AUXILIAIRE")</v>
       </c>
       <c r="I53" s="20" t="str">
         <f t="shared" ref="I53:I56" si="28">IF(OR(D53="tab",D53="tabselected"),B53&amp;VLOOKUP(D53,TAG_List,8,FALSE),"")</f>
@@ -2225,10 +2191,10 @@
     </row>
     <row r="55" spans="2:10" s="19" customFormat="1">
       <c r="B55" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>8</v>
@@ -2256,10 +2222,10 @@
     </row>
     <row r="56" spans="2:10" s="19" customFormat="1">
       <c r="B56" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>9</v>
@@ -2288,10 +2254,10 @@
     <row r="57" spans="2:10" s="19" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2312,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2361,23 +2327,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
+      <c r="B2" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -2385,23 +2351,23 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2410,22 +2376,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9" t="s">
@@ -2437,22 +2403,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>21</v>
@@ -2466,46 +2432,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -2526,10 +2492,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -2538,22 +2504,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2562,37 +2528,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2621,90 +2587,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
